--- a/data/qna/체육학과.xlsx
+++ b/data/qna/체육학과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>체육학과</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>교직이수</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>안녕하십니까 선배님들 교직이수 생각하고 원서 쓰려는데 성적 잘 나오면 교직이수 되는건가요?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>요강에 교직이라고 적혀있으면 1학년성적으로 결정함둥</t>
         </is>
@@ -465,6 +485,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>체육학과</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>제가 몸쓰는걸 좋아하다보니 체육학과나 물리치료학과 중에 고민하고 있는데 허리디스크가 약하게 있습니다 성적은 둘 다 가능하고 선배님들이라면 어떤 학과를 가실건가요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>물치과 ㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇ</t>
         </is>
       </c>
@@ -472,146 +502,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>실기 준비할때 출결</t>
+          <t>체육학과</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
-동의대학교 전공 알림단 김도희입니다.🥕🥕
-동의대학교 경기실적우수자전형의 출결상황 반영 방법과 관련하여 질문을 남겨주셨군요 - !!
-동의대학교 실기/실적(경기실적우수자전형, 체육특기자전형)의 출결 상황 점수 반영은, 결석일수에 따라 반영 점수가 달라집니다.
-결석일수 0~2일의 경우 120점, 3~6일의 경우 90점, 7~12일의 경우 60점, 13~20일의 경우 30점, 21일 이상의 경우 0점으로 점수가 반영됩니다.
-또한, 사고/무단/미인정의 지각/조퇴/결과 3회는 결석 1회로 간주하고 있습니다.  
-다른 궁금한 질문들이 있으시다면 WE-DEU 네이버 카페, 인스타그램 @we_deu_를 이용하여 추가 문의 주시면 빠르게 답변 드리겠습니다.
-반짝반짝 빛나는 질문자님의 꿈을 응원하겠습니다.
-감사합니다.💙</t>
+          <t>실업계(상업고)3학년 급한데 현실적인 조언좀 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>현재 상업고등학교 재학중인 3학년 학생입니다. 원래는 취업중심으로 하려고 했는데 계속 억울하게 떨어져서 대학을 가거나 일학습병행제를 하고싶은데  부모님께서는 군대를 3월에 바로갔다가 대학생각을 해보라는데 어떡하죠;;; 1학년때 내신관리를 못해서 1~3학년 총합 평균 3등급 초중반인데 이 성적으로 대학을 갈 수 있을까요? 가고싶은 학과도 정하지못했고 뭘 하고싶은지도 잘 모르겠습니다... 그나마 영어나 체육쪽으로 생각중이긴 한데 이 성적으로 동아대나 동의대 부경대 같은 부산 학교들은 못가나요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3등급 초중반이면 동의대 가능합니다
+특정 높은 학과는 어렵겠지만 그렇지 않은경우는 합격할것 같네요-!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>실업계(상업고)3학년 급한데 현실적인 조언좀 ㅠㅠ</t>
+          <t>체육학과</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3등급 초중반이면 동의대 가능합니다
-특정 높은 학과는 어렵겠지만 그렇지 않은경우는 합격할것 같네요-!</t>
+          <t>동의대 체육 종합 추가합격</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>학교생활우수자 전형 예비 15번 떴는데 들어갈수 있을까요..?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>어려울 것 같아요 …! 20년도에 제 기억상으로는 6번까지 운 좋게 빠져서 들어왔는데 잘 안빠지는 것 같아요</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>성적이 안 좋아도 들어갈 수 있나요?</t>
+          <t>체육학과</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>보아하니 대전에 사시는것 같은데 이곳이 좋은대도 아닌데 굳이 멀리 올 필요가 있을까요?
-몇 등급인지는 모르겠으나 한의, 간호, 경행 등 몇개 과 제외하면 5,6,7등급 수두룩 빽빽해서 너무 걱정할 필요는 없는데 그냥 집 근처 대학 추천해요</t>
+          <t>정시 등급</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>체육학과나 레저스포츠 정시 등급 얼마정도 나와야 하나요ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>정시 레저스포츠학과 실기전형 지원</t>
+          <t>체육학과</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 김승현입니다!
-동의대학교 레저스포츠학과 정시 실기고사 날짜에 대해 알려드리겠습니다.
-동의대 레저스포츠학과 정시 실기고사 날짜는 “23.01.12(목요일)”입니다 !
-날짜 잘 맞춰서 좋은 결과 있으시길 같이 기도하겠습니다.
-추가로 대기실 및 입실시간은 23.01.06(금) 14시 이후 입학안내 홈페이지에서 조회 가능합니다.
- 저의 답변이 도움이 되었으면 좋겠고 가고 싶은 학교의 대학입시를 응원하겠습니다!
-더 궁금하신 점 있으시면 위듀카페or 인스타그램 @we_deu 를 통해 연락 주시면 빠른답변 드리겠습니다. 반짝반짝 빛나는 질문자님의 꿈을 응원하겠습니다. 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>동의대 체육 종합 추가합격</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>어려울 것 같아요 …! 20년도에 제 기억상으로는 6번까지 운 좋게 빠져서 들어왔는데 잘 안빠지는 것 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>태권도</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>고등학교 전학</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>전학 여러번 다니던 애 성적 잘 받고 동국대 가던데 이전 학교에서 성적 좋았고 앞으로도 성적 좋으면 어느 대학교든 지장 없지 않겠습니까</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>체육학과</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>정시기준</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>실기 올만 수능 평균 4.0 최초합이었습니다 상영A 장학금 받고 들어갈 수 있었지만 안갔습니더</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>정시 등급</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
           <t>동의대</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>동의대 체육학과 실기고사 날짜가 언젠지 알 수 있을까요? 실기는 어느 전형으로 지원해야할까요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다.
@@ -626,25 +597,23 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>성비</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8 ㄷ 2 정도 체육학과는 대부분 7ㄷ3 안 넘는듯</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>체육학과</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>동의대 실기</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>제가 실기로 체육학과에 지원하려 하는데요. 성적이 너무 낮아요ㅠ 성적 많이 보나요??</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다🤍
@@ -659,65 +628,47 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>체육학과</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>체육학과 관련 질문🤔</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>체육학과 학교생활우수자 전형으로 지원할 예정인데 선배님들 1단계 서류 평가 때 스펙이 어느정도 되셨나요?? 또, 2단계 면접 평가 때 보편적으로 어떤 질문을 하셨는지 알 수 있을까요?🤔🤔</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>레저스포츠학부 종합 예비2번</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
-에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
-동의대학교 입시에 관심가져주셔서 감사합니다💕</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>동아리</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>배드민턴동아리 있어용 이름은 기억이...</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>체육학과</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>알려주세용</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>특성화고다니는데 수시로 들어갈려고 하거든요 그러면 무슨과목을 몇등급을 받아야하나요?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>페이스북에동의대학교 입학 홍보대사 Wedeu 검색하셔서 질문해 주세요! 친절히 답변해 드리겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>후보11인데..</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
         </is>
       </c>
     </row>
